--- a/_site/master-data/timing.xlsx
+++ b/_site/master-data/timing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gpeyre/Dropbox/github/dhai-seminar.github.io/master-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BBB97A-F05E-374B-A450-7ABED6F14528}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B648CC-F59D-4D4E-BDE7-FEDC3FF0E253}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1260" windowWidth="27220" windowHeight="17040" xr2:uid="{62A7C651-448A-434E-9345-5B448E3CE9D1}"/>
+    <workbookView xWindow="8020" yWindow="3780" windowWidth="27220" windowHeight="17040" xr2:uid="{62A7C651-448A-434E-9345-5B448E3CE9D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Monday 30</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Course #4</t>
   </si>
   <si>
-    <t>Numerics #1</t>
-  </si>
-  <si>
     <t>Numerics #2</t>
   </si>
   <si>
@@ -102,10 +99,19 @@
     <t>Numerics #4</t>
   </si>
   <si>
-    <t>Numerics #5</t>
-  </si>
-  <si>
     <t>Course #5</t>
+  </si>
+  <si>
+    <t>DHAI seminar (12-14)</t>
+  </si>
+  <si>
+    <t>Course #2 (→12:00)</t>
+  </si>
+  <si>
+    <t>(→ 14:30) Numerics #5</t>
+  </si>
+  <si>
+    <t>Numerics #1 (→12:00)</t>
   </si>
 </sst>
 </file>
@@ -121,7 +127,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,6 +173,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF2F92"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF2600"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -254,6 +266,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -263,25 +296,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -292,6 +307,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF2600"/>
       <color rgb="FFFF2F92"/>
       <color rgb="FF73FEFF"/>
     </mruColors>
@@ -607,7 +623,7 @@
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -639,19 +655,19 @@
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -659,95 +675,97 @@
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>24</v>
+      <c r="F5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="F7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>23</v>
+      <c r="G7" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -755,8 +773,9 @@
   <mergeCells count="3">
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="D6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>